--- a/biology/Zoologie/Hesydrus_habilis/Hesydrus_habilis.xlsx
+++ b/biology/Zoologie/Hesydrus_habilis/Hesydrus_habilis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hesydrus habilis est une espèce d'araignées aranéomorphes de la famille des Trechaleidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hesydrus habilis est une espèce d'araignées aranéomorphes de la famille des Trechaleidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre au Panama, au Costa Rica et au Guatemala[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre au Panama, au Costa Rica et au Guatemala.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La carapace du mâle décrit par Carico en 2005 mesure 4,8 mm de long sur 4,8 mm de large et celle de la femelle mesure 5,0 mm de long sur 5,0 mm de large[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La carapace du mâle décrit par Carico en 2005 mesure 4,8 mm de long sur 4,8 mm de large et celle de la femelle mesure 5,0 mm de long sur 5,0 mm de large.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>O. Pickard-Cambridge, 1896 : Arachnida. Araneida. Biologia Centrali-Americana, Zoology. London, vol. 1, p. 161-224 (texte intégral).</t>
         </is>
